--- a/ReadyForConversion/apap_SET3/conversion.changes.xlsx
+++ b/ReadyForConversion/apap_SET3/conversion.changes.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itssglobal-my.sharepoint.com/personal/saranyak_itssglobal_com/Documents/Documents/CLONE/APAPLocal/ReadyForConversion/apap_SET3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_5C86875EC63EF24AAC4600697EB368635BB6F1E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BE6F20D-A9B8-4522-9F22-D44CD71A795F}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$1:$E$539</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$E$539</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="935">
   <si>
     <t>File Name</t>
   </si>
@@ -2923,25 +2931,30 @@
   </si>
   <si>
     <t>370</t>
+  </si>
+  <si>
+    <t>REDO.S.CUSTOMER.NAME1</t>
+  </si>
+  <si>
+    <t>REDO.S.CUSTOMER.NAME1.NV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2949,10 +2962,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2960,37 +2973,592 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E539"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F539"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="43" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.0" customWidth="true"/>
-    <col min="2" max="2" width="32.0" customWidth="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true"/>
-    <col min="4" max="4" width="255.0" customWidth="true"/>
-    <col min="5" max="5" width="255.0" customWidth="true"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="145.90625" customWidth="1"/>
+    <col min="5" max="5" width="106.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3006,8 +3574,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3023,8 +3594,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3041,7 +3615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3075,7 +3649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -3092,7 +3666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3109,7 +3683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3126,7 +3700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -3143,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3160,7 +3734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -3177,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3194,7 +3768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -3211,7 +3785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -3228,7 +3802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -3245,7 +3819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -3262,7 +3836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -3279,7 +3853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -3296,7 +3870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -3313,7 +3887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -3330,7 +3904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -3347,7 +3921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -3364,7 +3938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3381,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3398,7 +3972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -3415,7 +3989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +4006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -3449,7 +4023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -3466,7 +4040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -3483,7 +4057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -3500,7 +4074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -3517,7 +4091,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -3534,7 +4108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -3551,7 +4125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -3568,7 +4142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +4159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
@@ -3602,7 +4176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -3619,7 +4193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -3636,7 +4210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -3653,7 +4227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -3670,7 +4244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
@@ -3687,7 +4261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -3704,7 +4278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3721,7 +4295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>85</v>
       </c>
@@ -3738,7 +4312,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
@@ -3755,7 +4329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -3772,7 +4346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -3789,7 +4363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -3806,7 +4380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>31</v>
       </c>
@@ -3823,7 +4397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>101</v>
       </c>
@@ -3840,7 +4414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
@@ -3857,7 +4431,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -3874,7 +4448,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>34</v>
       </c>
@@ -3891,7 +4465,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
@@ -3908,7 +4482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -3925,7 +4499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
@@ -3942,7 +4516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>101</v>
       </c>
@@ -3959,7 +4533,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
@@ -3976,7 +4550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -3993,7 +4567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>85</v>
       </c>
@@ -4010,7 +4584,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -4027,7 +4601,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -4044,7 +4618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>118</v>
       </c>
@@ -4061,7 +4635,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -4078,7 +4652,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>25</v>
       </c>
@@ -4095,7 +4669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
@@ -4112,7 +4686,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -4129,7 +4703,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -4146,7 +4720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -4163,7 +4737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -4180,7 +4754,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -4197,7 +4771,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -4214,7 +4788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -4231,7 +4805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -4248,7 +4822,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>85</v>
       </c>
@@ -4265,7 +4839,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>14</v>
       </c>
@@ -4282,7 +4856,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -4299,7 +4873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>148</v>
       </c>
@@ -4316,7 +4890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>148</v>
       </c>
@@ -4333,7 +4907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>148</v>
       </c>
@@ -4350,7 +4924,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>31</v>
       </c>
@@ -4367,7 +4941,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>24</v>
       </c>
@@ -4384,7 +4958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -4435,7 +5009,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -4452,7 +5026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -4469,7 +5043,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -4486,7 +5060,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>14</v>
       </c>
@@ -4503,7 +5077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>167</v>
       </c>
@@ -4520,7 +5094,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>167</v>
       </c>
@@ -4537,7 +5111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>167</v>
       </c>
@@ -4554,7 +5128,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>85</v>
       </c>
@@ -4571,7 +5145,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>24</v>
       </c>
@@ -4588,7 +5162,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -4605,7 +5179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>31</v>
       </c>
@@ -4622,7 +5196,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>23</v>
       </c>
@@ -4639,7 +5213,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>85</v>
       </c>
@@ -4656,7 +5230,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -4673,7 +5247,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>30</v>
       </c>
@@ -4690,7 +5264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>85</v>
       </c>
@@ -4707,7 +5281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>34</v>
       </c>
@@ -4724,7 +5298,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>85</v>
       </c>
@@ -4741,7 +5315,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>23</v>
       </c>
@@ -4758,7 +5332,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>23</v>
       </c>
@@ -4775,7 +5349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>23</v>
       </c>
@@ -4792,7 +5366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>31</v>
       </c>
@@ -4809,7 +5383,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>14</v>
       </c>
@@ -4826,7 +5400,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>85</v>
       </c>
@@ -4843,7 +5417,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>198</v>
       </c>
@@ -4860,7 +5434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>24</v>
       </c>
@@ -4877,7 +5451,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>24</v>
       </c>
@@ -4894,7 +5468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>24</v>
       </c>
@@ -4911,7 +5485,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>85</v>
       </c>
@@ -4928,7 +5502,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>34</v>
       </c>
@@ -4945,7 +5519,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>30</v>
       </c>
@@ -4962,7 +5536,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>211</v>
       </c>
@@ -4979,7 +5553,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>215</v>
       </c>
@@ -4996,7 +5570,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>215</v>
       </c>
@@ -5013,7 +5587,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>215</v>
       </c>
@@ -5030,7 +5604,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>221</v>
       </c>
@@ -5047,7 +5621,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>221</v>
       </c>
@@ -5064,7 +5638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>221</v>
       </c>
@@ -5081,7 +5655,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -5098,7 +5672,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>31</v>
       </c>
@@ -5115,7 +5689,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>85</v>
       </c>
@@ -5132,7 +5706,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>30</v>
       </c>
@@ -5149,7 +5723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>85</v>
       </c>
@@ -5166,7 +5740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>85</v>
       </c>
@@ -5183,7 +5757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>85</v>
       </c>
@@ -5200,7 +5774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>211</v>
       </c>
@@ -5217,7 +5791,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>85</v>
       </c>
@@ -5234,7 +5808,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>31</v>
       </c>
@@ -5251,7 +5825,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>30</v>
       </c>
@@ -5268,7 +5842,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>252</v>
       </c>
@@ -5285,7 +5859,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>30</v>
       </c>
@@ -5302,7 +5876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>31</v>
       </c>
@@ -5319,7 +5893,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>211</v>
       </c>
@@ -5336,7 +5910,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>252</v>
       </c>
@@ -5353,7 +5927,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>30</v>
       </c>
@@ -5370,7 +5944,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>30</v>
       </c>
@@ -5387,7 +5961,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>30</v>
       </c>
@@ -5404,7 +5978,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>30</v>
       </c>
@@ -5421,7 +5995,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>30</v>
       </c>
@@ -5438,7 +6012,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>198</v>
       </c>
@@ -5455,7 +6029,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>283</v>
       </c>
@@ -5472,7 +6046,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>286</v>
       </c>
@@ -5489,7 +6063,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>252</v>
       </c>
@@ -5506,7 +6080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>292</v>
       </c>
@@ -5523,7 +6097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>292</v>
       </c>
@@ -5540,7 +6114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>292</v>
       </c>
@@ -5557,7 +6131,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>295</v>
       </c>
@@ -5574,7 +6148,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>31</v>
       </c>
@@ -5591,7 +6165,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>30</v>
       </c>
@@ -5608,7 +6182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>30</v>
       </c>
@@ -5625,7 +6199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>30</v>
       </c>
@@ -5642,7 +6216,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>198</v>
       </c>
@@ -5659,7 +6233,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>34</v>
       </c>
@@ -5676,7 +6250,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>211</v>
       </c>
@@ -5693,7 +6267,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>309</v>
       </c>
@@ -5710,7 +6284,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>286</v>
       </c>
@@ -5727,7 +6301,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>252</v>
       </c>
@@ -5744,7 +6318,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>316</v>
       </c>
@@ -5761,7 +6335,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>283</v>
       </c>
@@ -5778,7 +6352,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>322</v>
       </c>
@@ -5795,7 +6369,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>322</v>
       </c>
@@ -5812,7 +6386,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>295</v>
       </c>
@@ -5829,7 +6403,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>316</v>
       </c>
@@ -5846,7 +6420,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>322</v>
       </c>
@@ -5863,7 +6437,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>316</v>
       </c>
@@ -5880,7 +6454,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>322</v>
       </c>
@@ -5897,7 +6471,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>316</v>
       </c>
@@ -5914,7 +6488,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>31</v>
       </c>
@@ -5931,7 +6505,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>322</v>
       </c>
@@ -5948,7 +6522,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>252</v>
       </c>
@@ -5965,7 +6539,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>286</v>
       </c>
@@ -5982,7 +6556,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>322</v>
       </c>
@@ -5999,7 +6573,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>316</v>
       </c>
@@ -6016,7 +6590,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>322</v>
       </c>
@@ -6033,7 +6607,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>322</v>
       </c>
@@ -6050,7 +6624,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>316</v>
       </c>
@@ -6067,7 +6641,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>316</v>
       </c>
@@ -6084,7 +6658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>316</v>
       </c>
@@ -6101,7 +6675,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>283</v>
       </c>
@@ -6118,7 +6692,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>295</v>
       </c>
@@ -6135,7 +6709,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>363</v>
       </c>
@@ -6152,7 +6726,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>363</v>
       </c>
@@ -6169,7 +6743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>363</v>
       </c>
@@ -6186,7 +6760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>363</v>
       </c>
@@ -6203,7 +6777,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>252</v>
       </c>
@@ -6220,7 +6794,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>322</v>
       </c>
@@ -6237,7 +6811,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>322</v>
       </c>
@@ -6254,7 +6828,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>316</v>
       </c>
@@ -6271,7 +6845,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>211</v>
       </c>
@@ -6288,7 +6862,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>316</v>
       </c>
@@ -6305,7 +6879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>322</v>
       </c>
@@ -6322,7 +6896,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>322</v>
       </c>
@@ -6339,7 +6913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>322</v>
       </c>
@@ -6356,7 +6930,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>286</v>
       </c>
@@ -6373,7 +6947,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>252</v>
       </c>
@@ -6390,7 +6964,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>31</v>
       </c>
@@ -6407,7 +6981,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>316</v>
       </c>
@@ -6424,7 +6998,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>283</v>
       </c>
@@ -6441,7 +7015,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>397</v>
       </c>
@@ -6458,7 +7032,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>397</v>
       </c>
@@ -6475,7 +7049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>397</v>
       </c>
@@ -6492,7 +7066,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>309</v>
       </c>
@@ -6509,7 +7083,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>295</v>
       </c>
@@ -6526,7 +7100,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>198</v>
       </c>
@@ -6543,7 +7117,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>34</v>
       </c>
@@ -6560,7 +7134,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>252</v>
       </c>
@@ -6577,7 +7151,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>252</v>
       </c>
@@ -6594,7 +7168,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>252</v>
       </c>
@@ -6611,7 +7185,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>414</v>
       </c>
@@ -6628,7 +7202,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>414</v>
       </c>
@@ -6645,7 +7219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>414</v>
       </c>
@@ -6662,7 +7236,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>420</v>
       </c>
@@ -6679,7 +7253,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>420</v>
       </c>
@@ -6696,7 +7270,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>420</v>
       </c>
@@ -6713,7 +7287,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>286</v>
       </c>
@@ -6730,7 +7304,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>286</v>
       </c>
@@ -6747,7 +7321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>286</v>
       </c>
@@ -6764,7 +7338,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>428</v>
       </c>
@@ -6781,7 +7355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>428</v>
       </c>
@@ -6798,7 +7372,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>428</v>
       </c>
@@ -6815,7 +7389,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>252</v>
       </c>
@@ -6832,7 +7406,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>434</v>
       </c>
@@ -6849,7 +7423,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>434</v>
       </c>
@@ -6866,7 +7440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>434</v>
       </c>
@@ -6883,7 +7457,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>437</v>
       </c>
@@ -6900,7 +7474,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>437</v>
       </c>
@@ -6917,7 +7491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>437</v>
       </c>
@@ -6934,7 +7508,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>211</v>
       </c>
@@ -6951,7 +7525,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>283</v>
       </c>
@@ -6968,7 +7542,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>295</v>
       </c>
@@ -6985,7 +7559,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>31</v>
       </c>
@@ -7002,7 +7576,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>447</v>
       </c>
@@ -7019,7 +7593,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>252</v>
       </c>
@@ -7036,7 +7610,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>286</v>
       </c>
@@ -7053,7 +7627,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>458</v>
       </c>
@@ -7070,7 +7644,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>283</v>
       </c>
@@ -7087,7 +7661,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>295</v>
       </c>
@@ -7104,7 +7678,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>31</v>
       </c>
@@ -7121,7 +7695,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>211</v>
       </c>
@@ -7138,7 +7712,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>286</v>
       </c>
@@ -7155,7 +7729,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>198</v>
       </c>
@@ -7172,7 +7746,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>458</v>
       </c>
@@ -7189,7 +7763,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>471</v>
       </c>
@@ -7206,7 +7780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>34</v>
       </c>
@@ -7223,7 +7797,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>31</v>
       </c>
@@ -7240,7 +7814,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>283</v>
       </c>
@@ -7257,7 +7831,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>447</v>
       </c>
@@ -7274,7 +7848,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>211</v>
       </c>
@@ -7291,7 +7865,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>295</v>
       </c>
@@ -7308,7 +7882,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>458</v>
       </c>
@@ -7325,7 +7899,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>484</v>
       </c>
@@ -7342,7 +7916,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>283</v>
       </c>
@@ -7359,7 +7933,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>283</v>
       </c>
@@ -7376,7 +7950,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>283</v>
       </c>
@@ -7393,7 +7967,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>211</v>
       </c>
@@ -7410,7 +7984,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>283</v>
       </c>
@@ -7427,7 +8001,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>458</v>
       </c>
@@ -7444,7 +8018,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>31</v>
       </c>
@@ -7461,7 +8035,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>501</v>
       </c>
@@ -7478,7 +8052,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>295</v>
       </c>
@@ -7495,7 +8069,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>471</v>
       </c>
@@ -7512,7 +8086,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>198</v>
       </c>
@@ -7529,7 +8103,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>484</v>
       </c>
@@ -7546,7 +8120,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>447</v>
       </c>
@@ -7563,7 +8137,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>501</v>
       </c>
@@ -7580,7 +8154,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>484</v>
       </c>
@@ -7597,7 +8171,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>31</v>
       </c>
@@ -7614,7 +8188,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>458</v>
       </c>
@@ -7631,7 +8205,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>295</v>
       </c>
@@ -7648,7 +8222,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>471</v>
       </c>
@@ -7665,7 +8239,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>309</v>
       </c>
@@ -7682,7 +8256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>283</v>
       </c>
@@ -7699,7 +8273,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>283</v>
       </c>
@@ -7716,7 +8290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>283</v>
       </c>
@@ -7733,7 +8307,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>211</v>
       </c>
@@ -7750,7 +8324,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>34</v>
       </c>
@@ -7767,7 +8341,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>484</v>
       </c>
@@ -7784,7 +8358,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>458</v>
       </c>
@@ -7801,7 +8375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>458</v>
       </c>
@@ -7818,7 +8392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>458</v>
       </c>
@@ -7835,7 +8409,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>501</v>
       </c>
@@ -7852,7 +8426,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>295</v>
       </c>
@@ -7869,7 +8443,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>31</v>
       </c>
@@ -7886,7 +8460,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>484</v>
       </c>
@@ -7903,7 +8477,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>471</v>
       </c>
@@ -7920,7 +8494,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>283</v>
       </c>
@@ -7937,7 +8511,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>211</v>
       </c>
@@ -7954,7 +8528,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>447</v>
       </c>
@@ -7971,7 +8545,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>458</v>
       </c>
@@ -7988,7 +8562,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>31</v>
       </c>
@@ -8005,7 +8579,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>501</v>
       </c>
@@ -8022,7 +8596,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>484</v>
       </c>
@@ -8039,7 +8613,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>295</v>
       </c>
@@ -8056,7 +8630,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>283</v>
       </c>
@@ -8073,7 +8647,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>198</v>
       </c>
@@ -8090,7 +8664,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>471</v>
       </c>
@@ -8107,7 +8681,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>447</v>
       </c>
@@ -8124,7 +8698,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>31</v>
       </c>
@@ -8141,7 +8715,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>484</v>
       </c>
@@ -8158,7 +8732,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>501</v>
       </c>
@@ -8175,7 +8749,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>295</v>
       </c>
@@ -8192,7 +8766,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>31</v>
       </c>
@@ -8209,7 +8783,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>211</v>
       </c>
@@ -8226,7 +8800,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>211</v>
       </c>
@@ -8243,7 +8817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>211</v>
       </c>
@@ -8260,7 +8834,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>484</v>
       </c>
@@ -8277,7 +8851,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>309</v>
       </c>
@@ -8294,7 +8868,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>34</v>
       </c>
@@ -8311,7 +8885,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>295</v>
       </c>
@@ -8328,7 +8902,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>447</v>
       </c>
@@ -8345,7 +8919,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>31</v>
       </c>
@@ -8362,7 +8936,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>581</v>
       </c>
@@ -8379,7 +8953,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>501</v>
       </c>
@@ -8396,7 +8970,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>484</v>
       </c>
@@ -8413,7 +8987,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>471</v>
       </c>
@@ -8430,7 +9004,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>31</v>
       </c>
@@ -8447,7 +9021,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>581</v>
       </c>
@@ -8464,7 +9038,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>588</v>
       </c>
@@ -8481,7 +9055,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>588</v>
       </c>
@@ -8498,7 +9072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>588</v>
       </c>
@@ -8515,7 +9089,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>501</v>
       </c>
@@ -8532,7 +9106,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>295</v>
       </c>
@@ -8549,7 +9123,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>484</v>
       </c>
@@ -8566,7 +9140,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>484</v>
       </c>
@@ -8583,7 +9157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>484</v>
       </c>
@@ -8600,7 +9174,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>447</v>
       </c>
@@ -8617,7 +9191,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>198</v>
       </c>
@@ -8634,7 +9208,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>471</v>
       </c>
@@ -8651,7 +9225,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>31</v>
       </c>
@@ -8668,7 +9242,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>309</v>
       </c>
@@ -8685,7 +9259,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>581</v>
       </c>
@@ -8702,7 +9276,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>34</v>
       </c>
@@ -8719,7 +9293,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>295</v>
       </c>
@@ -8736,7 +9310,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>31</v>
       </c>
@@ -8753,7 +9327,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>581</v>
       </c>
@@ -8770,7 +9344,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>501</v>
       </c>
@@ -8787,7 +9361,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>471</v>
       </c>
@@ -8804,7 +9378,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>447</v>
       </c>
@@ -8821,7 +9395,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>619</v>
       </c>
@@ -8838,7 +9412,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>581</v>
       </c>
@@ -8855,7 +9429,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>34</v>
       </c>
@@ -8872,7 +9446,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>198</v>
       </c>
@@ -8889,7 +9463,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>31</v>
       </c>
@@ -8906,7 +9480,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>295</v>
       </c>
@@ -8923,7 +9497,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>631</v>
       </c>
@@ -8940,7 +9514,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>447</v>
       </c>
@@ -8957,7 +9531,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>447</v>
       </c>
@@ -8974,7 +9548,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>447</v>
       </c>
@@ -8991,7 +9565,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>619</v>
       </c>
@@ -9008,7 +9582,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>501</v>
       </c>
@@ -9025,7 +9599,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>581</v>
       </c>
@@ -9042,7 +9616,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>471</v>
       </c>
@@ -9059,7 +9633,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>31</v>
       </c>
@@ -9076,7 +9650,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>631</v>
       </c>
@@ -9093,7 +9667,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>447</v>
       </c>
@@ -9110,7 +9684,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>447</v>
       </c>
@@ -9127,7 +9701,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>447</v>
       </c>
@@ -9144,7 +9718,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>619</v>
       </c>
@@ -9161,7 +9735,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>295</v>
       </c>
@@ -9178,7 +9752,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>581</v>
       </c>
@@ -9195,7 +9769,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>501</v>
       </c>
@@ -9212,7 +9786,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>31</v>
       </c>
@@ -9229,7 +9803,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>198</v>
       </c>
@@ -9246,7 +9820,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>631</v>
       </c>
@@ -9263,7 +9837,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>471</v>
       </c>
@@ -9280,7 +9854,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>619</v>
       </c>
@@ -9297,7 +9871,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>581</v>
       </c>
@@ -9314,7 +9888,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>309</v>
       </c>
@@ -9331,7 +9905,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>31</v>
       </c>
@@ -9348,7 +9922,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>295</v>
       </c>
@@ -9365,7 +9939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>295</v>
       </c>
@@ -9382,7 +9956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>295</v>
       </c>
@@ -9399,7 +9973,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>501</v>
       </c>
@@ -9416,7 +9990,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>581</v>
       </c>
@@ -9433,7 +10007,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>631</v>
       </c>
@@ -9450,7 +10024,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>471</v>
       </c>
@@ -9467,7 +10041,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>34</v>
       </c>
@@ -9484,7 +10058,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>581</v>
       </c>
@@ -9501,7 +10075,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>619</v>
       </c>
@@ -9518,7 +10092,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>31</v>
       </c>
@@ -9535,7 +10109,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>198</v>
       </c>
@@ -9552,7 +10126,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>309</v>
       </c>
@@ -9569,7 +10143,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>631</v>
       </c>
@@ -9586,7 +10160,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>295</v>
       </c>
@@ -9603,7 +10177,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>501</v>
       </c>
@@ -9620,7 +10194,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>471</v>
       </c>
@@ -9637,7 +10211,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>31</v>
       </c>
@@ -9654,7 +10228,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>581</v>
       </c>
@@ -9671,7 +10245,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>581</v>
       </c>
@@ -9688,7 +10262,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>581</v>
       </c>
@@ -9705,7 +10279,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>619</v>
       </c>
@@ -9722,7 +10296,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>581</v>
       </c>
@@ -9739,7 +10313,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>31</v>
       </c>
@@ -9756,7 +10330,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>631</v>
       </c>
@@ -9773,7 +10347,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>501</v>
       </c>
@@ -9790,7 +10364,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>471</v>
       </c>
@@ -9807,7 +10381,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>581</v>
       </c>
@@ -9824,7 +10398,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>309</v>
       </c>
@@ -9841,7 +10415,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>31</v>
       </c>
@@ -9858,7 +10432,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>619</v>
       </c>
@@ -9875,7 +10449,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>198</v>
       </c>
@@ -9892,7 +10466,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>34</v>
       </c>
@@ -9909,7 +10483,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>631</v>
       </c>
@@ -9926,7 +10500,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>501</v>
       </c>
@@ -9943,7 +10517,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>31</v>
       </c>
@@ -9960,7 +10534,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>631</v>
       </c>
@@ -9977,7 +10551,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>619</v>
       </c>
@@ -9994,7 +10568,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>501</v>
       </c>
@@ -10011,7 +10585,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>471</v>
       </c>
@@ -10028,7 +10602,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>198</v>
       </c>
@@ -10045,7 +10619,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>309</v>
       </c>
@@ -10062,7 +10636,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>34</v>
       </c>
@@ -10079,7 +10653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>31</v>
       </c>
@@ -10096,7 +10670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>31</v>
       </c>
@@ -10113,7 +10687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>501</v>
       </c>
@@ -10130,7 +10704,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>631</v>
       </c>
@@ -10147,7 +10721,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>31</v>
       </c>
@@ -10164,7 +10738,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>619</v>
       </c>
@@ -10181,7 +10755,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>471</v>
       </c>
@@ -10198,7 +10772,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>501</v>
       </c>
@@ -10215,7 +10789,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>31</v>
       </c>
@@ -10232,7 +10806,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>631</v>
       </c>
@@ -10249,7 +10823,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>619</v>
       </c>
@@ -10266,7 +10840,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>501</v>
       </c>
@@ -10283,7 +10857,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>31</v>
       </c>
@@ -10300,7 +10874,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>471</v>
       </c>
@@ -10317,7 +10891,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>631</v>
       </c>
@@ -10334,7 +10908,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>198</v>
       </c>
@@ -10351,7 +10925,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>34</v>
       </c>
@@ -10368,7 +10942,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>501</v>
       </c>
@@ -10385,7 +10959,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>619</v>
       </c>
@@ -10402,7 +10976,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>309</v>
       </c>
@@ -10419,7 +10993,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>631</v>
       </c>
@@ -10436,7 +11010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>631</v>
       </c>
@@ -10453,7 +11027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>631</v>
       </c>
@@ -10470,7 +11044,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>198</v>
       </c>
@@ -10487,7 +11061,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>471</v>
       </c>
@@ -10504,7 +11078,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>501</v>
       </c>
@@ -10521,7 +11095,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>619</v>
       </c>
@@ -10538,7 +11112,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>471</v>
       </c>
@@ -10555,7 +11129,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>501</v>
       </c>
@@ -10572,7 +11146,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>34</v>
       </c>
@@ -10589,7 +11163,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>631</v>
       </c>
@@ -10606,7 +11180,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>619</v>
       </c>
@@ -10623,7 +11197,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>501</v>
       </c>
@@ -10640,7 +11214,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>501</v>
       </c>
@@ -10657,7 +11231,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>501</v>
       </c>
@@ -10674,7 +11248,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>471</v>
       </c>
@@ -10691,7 +11265,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>198</v>
       </c>
@@ -10708,7 +11282,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>309</v>
       </c>
@@ -10725,7 +11299,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>619</v>
       </c>
@@ -10742,7 +11316,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>471</v>
       </c>
@@ -10759,7 +11333,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>501</v>
       </c>
@@ -10776,7 +11350,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>34</v>
       </c>
@@ -10793,7 +11367,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>34</v>
       </c>
@@ -10810,7 +11384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>34</v>
       </c>
@@ -10827,7 +11401,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>501</v>
       </c>
@@ -10844,7 +11418,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>471</v>
       </c>
@@ -10861,7 +11435,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>619</v>
       </c>
@@ -10878,7 +11452,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>501</v>
       </c>
@@ -10895,7 +11469,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>619</v>
       </c>
@@ -10912,7 +11486,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>471</v>
       </c>
@@ -10929,7 +11503,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>198</v>
       </c>
@@ -10946,7 +11520,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>619</v>
       </c>
@@ -10963,7 +11537,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>34</v>
       </c>
@@ -10980,7 +11554,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>471</v>
       </c>
@@ -10997,7 +11571,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>198</v>
       </c>
@@ -11014,7 +11588,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>309</v>
       </c>
@@ -11031,7 +11605,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>309</v>
       </c>
@@ -11048,7 +11622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>309</v>
       </c>
@@ -11065,7 +11639,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>619</v>
       </c>
@@ -11082,7 +11656,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>471</v>
       </c>
@@ -11099,7 +11673,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>619</v>
       </c>
@@ -11116,7 +11690,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>471</v>
       </c>
@@ -11133,7 +11707,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>198</v>
       </c>
@@ -11150,7 +11724,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>34</v>
       </c>
@@ -11167,7 +11741,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>619</v>
       </c>
@@ -11184,7 +11758,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>471</v>
       </c>
@@ -11201,7 +11775,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>619</v>
       </c>
@@ -11218,7 +11792,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>471</v>
       </c>
@@ -11235,7 +11809,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>619</v>
       </c>
@@ -11252,7 +11826,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>198</v>
       </c>
@@ -11269,7 +11843,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>471</v>
       </c>
@@ -11286,7 +11860,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>471</v>
       </c>
@@ -11303,7 +11877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>471</v>
       </c>
@@ -11320,7 +11894,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>34</v>
       </c>
@@ -11337,7 +11911,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>619</v>
       </c>
@@ -11354,7 +11928,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>471</v>
       </c>
@@ -11371,7 +11945,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>619</v>
       </c>
@@ -11388,7 +11962,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>198</v>
       </c>
@@ -11405,7 +11979,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>34</v>
       </c>
@@ -11422,7 +11996,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>619</v>
       </c>
@@ -11439,7 +12013,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>198</v>
       </c>
@@ -11456,7 +12030,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>471</v>
       </c>
@@ -11473,7 +12047,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>619</v>
       </c>
@@ -11490,7 +12064,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>471</v>
       </c>
@@ -11507,7 +12081,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>34</v>
       </c>
@@ -11524,7 +12098,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>619</v>
       </c>
@@ -11541,7 +12115,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>198</v>
       </c>
@@ -11558,7 +12132,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>619</v>
       </c>
@@ -11575,7 +12149,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>198</v>
       </c>
@@ -11592,7 +12166,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>34</v>
       </c>
@@ -11609,7 +12183,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>619</v>
       </c>
@@ -11626,7 +12200,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>619</v>
       </c>
@@ -11643,7 +12217,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>619</v>
       </c>
@@ -11660,7 +12234,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>619</v>
       </c>
@@ -11677,7 +12251,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>198</v>
       </c>
@@ -11694,7 +12268,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>34</v>
       </c>
@@ -11711,7 +12285,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>198</v>
       </c>
@@ -11728,7 +12302,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>198</v>
       </c>
@@ -11745,7 +12319,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>34</v>
       </c>
@@ -11762,7 +12336,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>198</v>
       </c>
@@ -11779,7 +12353,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>34</v>
       </c>
@@ -11796,7 +12370,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>198</v>
       </c>
@@ -11813,7 +12387,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>34</v>
       </c>
@@ -11830,7 +12404,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>198</v>
       </c>
@@ -11847,7 +12421,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>34</v>
       </c>
@@ -11864,7 +12438,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>198</v>
       </c>
@@ -11881,7 +12455,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>198</v>
       </c>
@@ -11898,7 +12472,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>34</v>
       </c>
@@ -11915,7 +12489,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>198</v>
       </c>
@@ -11932,7 +12506,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>34</v>
       </c>
@@ -11949,7 +12523,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>198</v>
       </c>
@@ -11966,7 +12540,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>34</v>
       </c>
@@ -11983,7 +12557,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>198</v>
       </c>
@@ -12000,7 +12574,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>198</v>
       </c>
@@ -12017,7 +12591,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>198</v>
       </c>
@@ -12034,7 +12608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>198</v>
       </c>
@@ -12051,7 +12625,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>198</v>
       </c>
@@ -12068,7 +12642,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>198</v>
       </c>
@@ -12085,7 +12659,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>198</v>
       </c>
@@ -12102,7 +12676,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>198</v>
       </c>
@@ -12119,7 +12693,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>198</v>
       </c>
@@ -12136,7 +12710,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>198</v>
       </c>
@@ -12154,7 +12728,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E539"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:E539" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>